--- a/data/JUN25-Min.xlsx
+++ b/data/JUN25-Min.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\Water-Use-Assumptions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A70BF3A-1B7C-4AC3-A128-F4FDF241007C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E645F73-CC54-4AD6-B8F1-F88D421309D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58485" yWindow="1485" windowWidth="22215" windowHeight="16830" xr2:uid="{E48FCDF0-69A1-49E3-B50E-C81CB2062227}"/>
+    <workbookView xWindow="56970" yWindow="2190" windowWidth="22215" windowHeight="16830" xr2:uid="{E48FCDF0-69A1-49E3-B50E-C81CB2062227}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -654,7 +654,7 @@
         <v>250189</v>
       </c>
       <c r="E5" s="2">
-        <v>39878</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>1148088.0000030301</v>
       </c>
       <c r="E43" s="2">
-        <v>1108210.00000119</v>
+        <v>948088.00000263203</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
